--- a/April'21/24.04.2021/Daily Sales Info.xlsx
+++ b/April'21/24.04.2021/Daily Sales Info.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="79">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Rokib</t>
+  </si>
+  <si>
+    <t>Date:25.04.2021</t>
   </si>
 </sst>
 </file>
@@ -33373,7 +33376,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35214,7 +35217,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36871,8 +36874,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40098,9 +40101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41786,8 +41789,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41850,7 +41853,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B3" s="93"/>
       <c r="C3" s="94"/>
@@ -42525,7 +42528,9 @@
       <c r="C18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="29">
+        <v>18760</v>
+      </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -42536,29 +42541,29 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18760</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18760</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>515.9</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18244.099999999999</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>178.22</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -42983,7 +42988,7 @@
       <c r="C28" s="84"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
-        <v>0</v>
+        <v>18760</v>
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
@@ -43019,15 +43024,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18760</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18760</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>515.9</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -43039,15 +43044,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18244.099999999999</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>178.22</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>178.22</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -43058,7 +43063,7 @@
       <c r="C29" s="87"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -43430,7 +43435,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -44608,7 +44613,7 @@
       <c r="C29" s="87"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -44980,7 +44985,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -46158,7 +46163,7 @@
       <c r="C29" s="87"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -46530,7 +46535,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -47708,7 +47713,7 @@
       <c r="C29" s="87"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -48080,7 +48085,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -49258,7 +49263,7 @@
       <c r="C29" s="87"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -51346,7 +51351,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -52524,7 +52529,7 @@
       <c r="C29" s="87"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -52896,7 +52901,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -54074,7 +54079,7 @@
       <c r="C29" s="87"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
@@ -55450,7 +55455,7 @@
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>212099</v>
+        <v>230859</v>
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
@@ -55486,15 +55491,15 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>221739</v>
+        <v>240499</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>236693</v>
+        <v>255453</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>6097.8225000000002</v>
+        <v>6613.7224999999999</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -55503,15 +55508,15 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>227695.17749999999</v>
+        <v>245939.2775</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>2106.5205000000001</v>
+        <v>2284.7404999999999</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-793.47949999999992</v>
+        <v>-615.25950000000012</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -56206,7 +56211,7 @@
       <c r="C28" s="84"/>
       <c r="D28" s="44">
         <f>SUM(D7:D27)</f>
-        <v>4286559</v>
+        <v>4305319</v>
       </c>
       <c r="E28" s="45">
         <f>SUM(E7:E27)</f>
@@ -56242,15 +56247,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="6"/>
-        <v>4618219</v>
+        <v>4636979</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="6"/>
-        <v>4821450</v>
+        <v>4840210</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="6"/>
-        <v>127001.02249999999</v>
+        <v>127516.92249999999</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
@@ -56262,15 +56267,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="6"/>
-        <v>4652814.9774999991</v>
+        <v>4671059.0774999997</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="6"/>
-        <v>43873.080499999996</v>
+        <v>44051.300499999998</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="6"/>
-        <v>2239.0805000000005</v>
+        <v>2417.3005000000007</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -56281,7 +56286,7 @@
       <c r="C29" s="87"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>500277</v>
+        <v>481517</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="7">E4+E5-E28</f>
